--- a/data/excel_exam.xlsx
+++ b/data/excel_exam.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc954deabf6f6732/Easy_Python/prj_EasyPython/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\LS빅데이터스쿨\lsbigdata-project1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{76476224-A389-461C-80BA-E062FF038C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC159BAD-020A-46CA-B172-C30ECF3DF1DB}"/>
   <bookViews>
-    <workbookView xWindow="53560" yWindow="6440" windowWidth="8070" windowHeight="8700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53560" yWindow="6440" windowWidth="8070" windowHeight="8700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,23 +186,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -237,23 +221,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -429,10 +396,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -798,4 +767,223 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="A2:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1">
+        <v>98</v>
+      </c>
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>97</v>
+      </c>
+      <c r="E3" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>98</v>
+      </c>
+      <c r="E5" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1">
+        <v>97</v>
+      </c>
+      <c r="E2" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1">
+        <v>86</v>
+      </c>
+      <c r="E3" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1">
+        <v>98</v>
+      </c>
+      <c r="E4" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>